--- a/biology/Botanique/Bagh-e_Babur/Bagh-e_Babur.xlsx
+++ b/biology/Botanique/Bagh-e_Babur/Bagh-e_Babur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagh-e Babur, aussi appelé jardins de Babur (باغ بابر en pachto, باغ بابر en persan), est un parc historique situé au sud-est de Kaboul, capitale de l'Afghanistan. C'est un exemple de jardin moghol, l'un des plus anciens étant arrivé jusqu'à nous[1].  Le nom Bagh-e Babur est utilisé aujourd'hui mais son nom historique n'est pas connu[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagh-e Babur, aussi appelé jardins de Babur (باغ بابر en pachto, باغ بابر en persan), est un parc historique situé au sud-est de Kaboul, capitale de l'Afghanistan. C'est un exemple de jardin moghol, l'un des plus anciens étant arrivé jusqu'à nous.  Le nom Bagh-e Babur est utilisé aujourd'hui mais son nom historique n'est pas connu. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin couvre 11,5 hectares et est composé de 15 terrasses[1]. Depuis la terrasse centrale, les visiteurs ont une vue sur l'ensemble du parc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin couvre 11,5 hectares et est composé de 15 terrasses. Depuis la terrasse centrale, les visiteurs ont une vue sur l'ensemble du parc.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagh-e Babur est à l'origine la tombe du fondateur de l'empire moghol Babur et a été construit en 1528, deux ans avant sa mort. L'empereur était un passionné de jardins et a supervisé la construction de dix d'entre eux dans Kaboul[1]. Il demanda à être enterré dans une tombe modeste[2]. Mort à Agra, son corps n'est amené à Bagh-e Babur pour être enterré seulement neuf ans plus tard[2].
-Pendant plus de 150 ans, les héritiers de Babur venaient lui rendre hommage à Bagh-e Babur[1]. En 1646, Shâh Jahân a fait construire une petite mosquée en marbre pour commémorer la prise de Balkh[2].
-Bagh-e Babur a été endommagé par un tremblement de terre en 1842[2].
-Au XIXe siècle, l'émir Abdur Rahman Khan entreprit de grands travaux de modification du site. Il installa un palais au coin sud-est et un pavillon sur la neuvième terrasse[1].
-Nâdir Châh supprima ces deux bâtiments et leur donna pour sa part une touche « européenne »[1].
-En 2002, l'Aga Khan Development Network a commencé des travaux de restauration avec l'aide du gouvernement allemand[2],[3]. L'Institut archéologique allemand a étudié le site entre 2002 et 2005[1]. Le projet Bagh-e Babur a été conçu dans une optique plus large qu'une simple restauration, comme un projet de développement économique durable permettant de créer de l'emploi et de l'engagement civique dans les quartiers environnants[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagh-e Babur est à l'origine la tombe du fondateur de l'empire moghol Babur et a été construit en 1528, deux ans avant sa mort. L'empereur était un passionné de jardins et a supervisé la construction de dix d'entre eux dans Kaboul. Il demanda à être enterré dans une tombe modeste. Mort à Agra, son corps n'est amené à Bagh-e Babur pour être enterré seulement neuf ans plus tard.
+Pendant plus de 150 ans, les héritiers de Babur venaient lui rendre hommage à Bagh-e Babur. En 1646, Shâh Jahân a fait construire une petite mosquée en marbre pour commémorer la prise de Balkh.
+Bagh-e Babur a été endommagé par un tremblement de terre en 1842.
+Au XIXe siècle, l'émir Abdur Rahman Khan entreprit de grands travaux de modification du site. Il installa un palais au coin sud-est et un pavillon sur la neuvième terrasse.
+Nâdir Châh supprima ces deux bâtiments et leur donna pour sa part une touche « européenne ».
+En 2002, l'Aga Khan Development Network a commencé des travaux de restauration avec l'aide du gouvernement allemand,. L'Institut archéologique allemand a étudié le site entre 2002 et 2005. Le projet Bagh-e Babur a été conçu dans une optique plus large qu'une simple restauration, comme un projet de développement économique durable permettant de créer de l'emploi et de l'engagement civique dans les quartiers environnants.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Patrimoine mondial</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est candidat à l'inscription au patrimoine mondial de l'UNESCO depuis le 2 novembre 2009[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est candidat à l'inscription au patrimoine mondial de l'UNESCO depuis le 2 novembre 2009.
 </t>
         </is>
       </c>
